--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1743987.35819651</v>
+        <v>-1747552.860070059</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13974481.04968401</v>
+        <v>13970941.1733415</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>293.3215601167208</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.88348212727462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.2483168457416</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>121.200367615227</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>122.7111002964988</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>196.621563709337</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.031512449999864</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>159.4351542963249</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968079</v>
+        <v>70.90536896242881</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>63.45080330270152</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>57.46953671607993</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>333.4066669583403</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>51.22423222953048</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>113.1667354347866</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>259.3062088958344</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873666</v>
       </c>
       <c r="D11" t="n">
         <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>229.6260238014914</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372778</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.7701071136279</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>244.684004402461</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.4474895938728</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096562</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177836</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465747</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442474</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681687</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338892</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456085</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901676</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>192.241239332652</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.9134436911237</v>
+        <v>121.8889132889612</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873666</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.4793772398888</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>40.13905097438921</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372778</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.7701071136279</v>
       </c>
       <c r="T14" t="n">
-        <v>26.32608977062863</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750153</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087847</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.4474895938728</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>51.27593236751544</v>
       </c>
       <c r="D16" t="n">
-        <v>40.58491194866581</v>
+        <v>82.99846957177836</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442474</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338892</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456085</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901676</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.506091445786</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.802628176791</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927754</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954278</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568057</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291031</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838868</v>
+        <v>24.17382596574997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828881</v>
+        <v>52.06849973565009</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162026</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431713</v>
+        <v>70.57601873167842</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459954</v>
+        <v>55.72314698196082</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643926</v>
+        <v>41.29686219380055</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931837</v>
+        <v>41.22330424667966</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908564</v>
+        <v>42.97275566644693</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147778</v>
+        <v>53.79159358883906</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804982</v>
+        <v>41.14384575541111</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922175</v>
+        <v>18.98356133658304</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367767</v>
+        <v>9.882059701038955</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920499</v>
+        <v>88.00800320656627</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404469</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.160640748063</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947756</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714519</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
@@ -3509,7 +3509,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8922126370104</v>
+        <v>1276.71778400379</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8922126370104</v>
+        <v>883.5422825067208</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8922126370104</v>
+        <v>498.1011537233885</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8922126370104</v>
+        <v>498.1011537233885</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073922</v>
+        <v>485.2471192937703</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357994</v>
+        <v>476.1247678221775</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310448</v>
+        <v>74.88432743274802</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>74.88432743274802</v>
       </c>
       <c r="M2" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424367</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572947</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465275</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596797</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582684</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="U2" t="n">
-        <v>1657.536724017283</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="V2" t="n">
-        <v>1315.429914720801</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="W2" t="n">
-        <v>944.4308796890887</v>
+        <v>1666.170389070734</v>
       </c>
       <c r="X2" t="n">
-        <v>944.4308796890887</v>
+        <v>1276.71778400379</v>
       </c>
       <c r="Y2" t="n">
-        <v>928.3869583484072</v>
+        <v>1276.71778400379</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692.2074120948781</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284333</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>363.2348054569813</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>901.4935904670734</v>
+        <v>1358.411157326567</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430367</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021348</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734587</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413229</v>
+        <v>1706.251474293499</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784296</v>
+        <v>1483.711472664566</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917583</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675947</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431019</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1908.80362455857</v>
+        <v>354.4622946408508</v>
       </c>
       <c r="C4" t="n">
-        <v>1784.85301819847</v>
+        <v>354.4622946408508</v>
       </c>
       <c r="D4" t="n">
-        <v>1784.85301819847</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="E4" t="n">
-        <v>1629.294206057673</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F4" t="n">
-        <v>1471.968271270646</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G4" t="n">
-        <v>1303.714217370091</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>1303.714217370091</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>1303.714217370091</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196193</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306135</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179935</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518199</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549408</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591116</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367694</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737746</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737746</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.782969737746</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>2174.782969737746</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>2174.782969737746</v>
+        <v>620.4416398200266</v>
       </c>
       <c r="V4" t="n">
-        <v>1908.80362455857</v>
+        <v>354.4622946408508</v>
       </c>
       <c r="W4" t="n">
-        <v>1908.80362455857</v>
+        <v>354.4622946408508</v>
       </c>
       <c r="X4" t="n">
-        <v>1908.80362455857</v>
+        <v>354.4622946408508</v>
       </c>
       <c r="Y4" t="n">
-        <v>1908.80362455857</v>
+        <v>354.4622946408508</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1258.993982160106</v>
+        <v>934.0494222747193</v>
       </c>
       <c r="C5" t="n">
-        <v>1258.993982160106</v>
+        <v>773.0038118743911</v>
       </c>
       <c r="D5" t="n">
-        <v>873.552853376774</v>
+        <v>387.5626830910588</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>387.5626830910588</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>374.7086486614406</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475491</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222167</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407456</v>
+        <v>74.88432743274802</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>588.4870060424367</v>
       </c>
       <c r="N5" t="n">
-        <v>1961.8683757883</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O5" t="n">
-        <v>1961.8683757883</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596797</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023267</v>
+        <v>1870.655869043497</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.289453582684</v>
+        <v>1647.155266602913</v>
       </c>
       <c r="U5" t="n">
-        <v>1657.536724017283</v>
+        <v>1647.155266602913</v>
       </c>
       <c r="V5" t="n">
-        <v>1657.536724017283</v>
+        <v>1305.048457306432</v>
       </c>
       <c r="W5" t="n">
-        <v>1657.536724017283</v>
+        <v>934.0494222747193</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.536724017283</v>
+        <v>934.0494222747193</v>
       </c>
       <c r="Y5" t="n">
-        <v>1261.046014937884</v>
+        <v>934.0494222747193</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569813</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552947</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="M6" t="n">
-        <v>1385.059676365387</v>
+        <v>555.1059253660272</v>
       </c>
       <c r="N6" t="n">
-        <v>1923.318461375479</v>
+        <v>1068.708603975716</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182855</v>
+        <v>1582.311282585405</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1987.932651301802</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737746</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737746</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1844.693032804323</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1634.629889482965</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1412.089887854032</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1181.972641987319</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>992.6655643373308</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.8830145401147</v>
+        <v>878.8585487901116</v>
       </c>
       <c r="C7" t="n">
-        <v>444.8830145401147</v>
+        <v>708.6534308561008</v>
       </c>
       <c r="D7" t="n">
-        <v>289.2499014426294</v>
+        <v>553.0203177586155</v>
       </c>
       <c r="E7" t="n">
-        <v>289.2499014426294</v>
+        <v>397.461505617818</v>
       </c>
       <c r="F7" t="n">
-        <v>131.9239666556024</v>
+        <v>240.135570830791</v>
       </c>
       <c r="G7" t="n">
-        <v>131.9239666556024</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="H7" t="n">
-        <v>131.9239666556024</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865295</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>678.9633367571316</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>678.9633367571316</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>444.8830145401147</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.8830145401147</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.657193557198</v>
+        <v>1712.909678507656</v>
       </c>
       <c r="C8" t="n">
-        <v>1352.481692060129</v>
+        <v>1319.734177010587</v>
       </c>
       <c r="D8" t="n">
-        <v>1352.481692060129</v>
+        <v>934.2930482272545</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636597</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>2142.147902636597</v>
+        <v>2109.400387587055</v>
       </c>
       <c r="W8" t="n">
-        <v>2142.147902636597</v>
+        <v>2109.400387587055</v>
       </c>
       <c r="X8" t="n">
-        <v>2142.147902636597</v>
+        <v>2109.400387587055</v>
       </c>
       <c r="Y8" t="n">
-        <v>1745.657193557198</v>
+        <v>1712.909678507656</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>632.8109751081458</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1218.308980114748</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1734.829262705729</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2140.450631422126</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>360.1174559270767</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>360.1174559270767</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>360.1174559270767</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>360.1174559270767</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>834.4501588705843</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>598.7311070388184</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>313.2923152807194</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>360.1174559270767</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>360.1174559270767</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>360.1174559270767</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>360.1174559270767</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1635.894626669076</v>
+        <v>1589.282783693953</v>
       </c>
       <c r="C11" t="n">
-        <v>1314.515400318201</v>
+        <v>1267.903557343078</v>
       </c>
       <c r="D11" t="n">
-        <v>1000.870546681062</v>
+        <v>954.2587037059398</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>722.3132251185749</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572338</v>
+        <v>722.3132251185749</v>
       </c>
       <c r="G11" t="n">
-        <v>314.4059029914309</v>
+        <v>380.9467447527721</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654567</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411548</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5060,31 +5060,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205774</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205774</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293018</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998629</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998629</v>
       </c>
       <c r="V11" t="n">
-        <v>2835.645851055488</v>
+        <v>2859.534777998629</v>
       </c>
       <c r="W11" t="n">
-        <v>2536.44309116997</v>
+        <v>2560.332018113111</v>
       </c>
       <c r="X11" t="n">
-        <v>2289.287531167484</v>
+        <v>2242.675688192361</v>
       </c>
       <c r="Y11" t="n">
-        <v>1964.593097234279</v>
+        <v>1917.981254259156</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F12" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G12" t="n">
         <v>199.803798091603</v>
@@ -5115,28 +5115,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411548</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>84.60386270860994</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L12" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>411.7059410452042</v>
+        <v>556.686367154244</v>
       </c>
       <c r="C13" t="n">
-        <v>411.7059410452042</v>
+        <v>556.686367154244</v>
       </c>
       <c r="D13" t="n">
-        <v>327.8691030939128</v>
+        <v>472.8495292029527</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1065660993092</v>
+        <v>389.0869922083492</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675161</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131557</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411548</v>
       </c>
       <c r="J13" t="n">
         <v>102.7129143774628</v>
@@ -5206,16 +5206,16 @@
         <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814508</v>
@@ -5230,19 +5230,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245449</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915626</v>
+        <v>955.5022722034684</v>
       </c>
       <c r="W13" t="n">
-        <v>741.8597555915626</v>
+        <v>955.5022722034684</v>
       </c>
       <c r="X13" t="n">
-        <v>579.5757085207396</v>
+        <v>793.2182251326454</v>
       </c>
       <c r="Y13" t="n">
-        <v>525.1176845903116</v>
+        <v>670.0981106993513</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.395101119022</v>
+        <v>1135.015795124459</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.015874768147</v>
+        <v>813.6365687735831</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131009</v>
+        <v>499.9917151364448</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937468</v>
+        <v>169.2044653991832</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>169.2044653991832</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654567</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654567</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411548</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5282,46 +5282,46 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358932</v>
       </c>
       <c r="M14" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403513</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040975</v>
       </c>
       <c r="O14" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933304</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064825</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205774</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205774</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.239105293018</v>
       </c>
       <c r="T14" t="n">
-        <v>2984.647095423698</v>
+        <v>2859.534777998629</v>
       </c>
       <c r="U14" t="n">
-        <v>2984.647095423698</v>
+        <v>2675.578323579422</v>
       </c>
       <c r="V14" t="n">
-        <v>2984.647095423698</v>
+        <v>2405.267789429134</v>
       </c>
       <c r="W14" t="n">
-        <v>2685.44433553818</v>
+        <v>2106.065029543616</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.78800561743</v>
+        <v>1788.408699622867</v>
       </c>
       <c r="Y14" t="n">
-        <v>2043.093571684225</v>
+        <v>1463.714265689662</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5340,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F15" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G15" t="n">
         <v>199.803798091603</v>
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411548</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>528.4906955503745</v>
+        <v>428.2599224835784</v>
       </c>
       <c r="C16" t="n">
-        <v>430.0818527625576</v>
+        <v>376.46605140528</v>
       </c>
       <c r="D16" t="n">
-        <v>389.0869922083497</v>
+        <v>292.6292134539888</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083497</v>
+        <v>292.6292134539888</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>207.0995538131557</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131557</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411548</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
         <v>1313.608118922022</v>
@@ -5467,19 +5467,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1149.68534223645</v>
+        <v>936.0428256245455</v>
       </c>
       <c r="V16" t="n">
-        <v>955.5022722034677</v>
+        <v>741.859755591564</v>
       </c>
       <c r="W16" t="n">
-        <v>955.5022722034677</v>
+        <v>741.859755591564</v>
       </c>
       <c r="X16" t="n">
-        <v>793.2182251326446</v>
+        <v>579.575708520741</v>
       </c>
       <c r="Y16" t="n">
-        <v>641.9024390954819</v>
+        <v>428.2599224835784</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599515</v>
@@ -5498,64 +5498,64 @@
         <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975446</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404052</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N17" t="n">
         <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5577,10 +5577,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G18" t="n">
         <v>199.803798091603</v>
@@ -5589,13 +5589,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J18" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L18" t="n">
         <v>978.5393418843826</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072659</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462909</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133154</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445246</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862326</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975451</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803429</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,7 +5768,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5777,25 +5777,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829233</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291067</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446686</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184684</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567324</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924234</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6020,7 +6020,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,10 +6029,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229791</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222398</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960396</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343036</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655128</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>845.847430707221</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,16 +6224,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388008</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958359</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118092</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
         <v>2546.304425485127</v>
@@ -6257,16 +6257,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
@@ -6382,13 +6382,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142174</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174142</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164849</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420325</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.56169864057</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848359</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6546,16 +6546,16 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>873.7856815310552</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.557331157736</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>2157.335302368295</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463654</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.898782305708</v>
+        <v>601.380725810811</v>
       </c>
       <c r="G32" t="n">
-        <v>317.146589723076</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189319</v>
+        <v>91.97314162835521</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766601</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.452769904122</v>
+        <v>682.8393851136178</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667232</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924093</v>
+        <v>2770.308462001363</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3118.495954132885</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042567</v>
+        <v>3303.341514273834</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397275</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291773</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154195</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004161</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645716</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210286</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210286</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1526.638338773444</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965112</v>
+        <v>365.6713676929726</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918652</v>
+        <v>309.3853606404869</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237448</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123121</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546498</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834601</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431888</v>
+        <v>86.73045008374214</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076156</v>
+        <v>143.5810516071577</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507034</v>
+        <v>225.4160927170996</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245032</v>
+        <v>389.5437325908994</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898376</v>
+        <v>687.4874315041461</v>
       </c>
       <c r="N34" t="n">
-        <v>895.5376270481172</v>
+        <v>982.329186110338</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.26906814587</v>
+        <v>1145.033953152046</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649519</v>
+        <v>1376.562239503607</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.11361574664</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308582</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420496</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518095</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.88095068936</v>
+        <v>987.78596262502</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395494</v>
+        <v>835.7257283273693</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000918</v>
+        <v>666.3144371400721</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124396</v>
+        <v>546.1532258045803</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584478</v>
+        <v>436.9602755027487</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6953,7 +6953,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797591</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296498</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,7 +7333,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
         <v>437.1381783102858</v>
@@ -7342,40 +7342,40 @@
         <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879418</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924226</v>
@@ -7567,25 +7567,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.6987703122995</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222414</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960412</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>499.9530296343052</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>683.1426636655144</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>845.8474307072225</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.202162476281</v>
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,7 +7670,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829236</v>
@@ -7731,19 +7731,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N45" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7816,13 +7816,13 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
         <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
         <v>1098.202162476281</v>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>176.7766664887419</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N2" t="n">
-        <v>312.0096393411912</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8061,22 +8061,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837483</v>
+        <v>611.1777065035429</v>
       </c>
       <c r="N3" t="n">
-        <v>440.0667875645642</v>
+        <v>162.9122342875701</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,22 +8216,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>186.9664330399963</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>178.654006643448</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,25 +8295,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837483</v>
+        <v>611.1777065035429</v>
       </c>
       <c r="N6" t="n">
-        <v>629.067855288603</v>
+        <v>604.1626973083977</v>
       </c>
       <c r="O6" t="n">
-        <v>109.9596970781578</v>
+        <v>611.47814334312</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>179.0989476156334</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,16 +8459,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>447.2465985618126</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8541,7 +8541,7 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5244230630204</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>318.4607528074838</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294491</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>112.3087888732267</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>464.9323088406971</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,19 +9723,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>571.8744206036794</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>220.884447093964</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10194,19 +10194,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>461.3398360504042</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10437,10 +10437,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118432</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>314.1682372053023</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -11379,22 +11379,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O45" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>97.85335343839746</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905899</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750153</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087847</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>69.79576221908076</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993863</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.506091445786</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534021</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>95.8891844856674</v>
+        <v>27.91371488782982</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905899</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>297.8137645877556</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>123.8611942508169</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096562</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.1488219924232</v>
       </c>
       <c r="D16" t="n">
-        <v>42.41355762311265</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465747</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681687</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534021</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1219344.149187052</v>
+        <v>1217539.506345771</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1219344.149187052</v>
+        <v>1217539.506345771</v>
       </c>
     </row>
     <row r="4">
@@ -26320,34 +26320,34 @@
         <v>108199.3068560141</v>
       </c>
       <c r="E2" t="n">
-        <v>95615.41405464023</v>
+        <v>95615.41405464037</v>
       </c>
       <c r="F2" t="n">
-        <v>95615.41405464025</v>
+        <v>95615.41405464041</v>
       </c>
       <c r="G2" t="n">
-        <v>108199.3068560141</v>
+        <v>108199.306856014</v>
       </c>
       <c r="H2" t="n">
-        <v>108199.3068560141</v>
+        <v>108199.306856014</v>
       </c>
       <c r="I2" t="n">
-        <v>108199.3068560141</v>
+        <v>108199.306856014</v>
       </c>
       <c r="J2" t="n">
         <v>108199.3068560141</v>
       </c>
       <c r="K2" t="n">
+        <v>108199.306856014</v>
+      </c>
+      <c r="L2" t="n">
         <v>108199.3068560141</v>
       </c>
-      <c r="L2" t="n">
-        <v>108199.3068560139</v>
-      </c>
       <c r="M2" t="n">
-        <v>108199.306856014</v>
+        <v>108199.3068560141</v>
       </c>
       <c r="N2" t="n">
-        <v>108199.306856014</v>
+        <v>108199.3068560141</v>
       </c>
       <c r="O2" t="n">
         <v>108199.3068560141</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918556</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062215</v>
+        <v>22558.42953401333</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728567</v>
+        <v>62456.24177539663</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962308</v>
+        <v>43252.52447081103</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277117</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26427,7 +26427,7 @@
         <v>151510.2534766782</v>
       </c>
       <c r="F4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.2534766782</v>
       </c>
       <c r="G4" t="n">
         <v>199269.1699682603</v>
@@ -26442,10 +26442,10 @@
         <v>200019.6624326435</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326435</v>
+        <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.0885321601</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984049</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984049</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173846</v>
+        <v>60823.19813315425</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-373114.2551897347</v>
+        <v>-368161.2617616799</v>
       </c>
       <c r="C6" t="n">
-        <v>-190909.3068978791</v>
+        <v>-194302.6047276246</v>
       </c>
       <c r="D6" t="n">
-        <v>-199230.1472834487</v>
+        <v>-206966.4365068399</v>
       </c>
       <c r="E6" t="n">
-        <v>-221203.420595923</v>
+        <v>-221413.1521426123</v>
       </c>
       <c r="F6" t="n">
-        <v>-109080.8591218784</v>
+        <v>-109290.5906685679</v>
       </c>
       <c r="G6" t="n">
-        <v>-196664.9579644478</v>
+        <v>-196664.9579644479</v>
       </c>
       <c r="H6" t="n">
-        <v>-149239.6324277659</v>
+        <v>-149239.632427766</v>
       </c>
       <c r="I6" t="n">
-        <v>-149239.6324277659</v>
+        <v>-149239.632427766</v>
       </c>
       <c r="J6" t="n">
-        <v>-362281.5500250513</v>
+        <v>-355765.2648704784</v>
       </c>
       <c r="K6" t="n">
         <v>-155479.4008305489</v>
       </c>
       <c r="L6" t="n">
-        <v>-210661.9897651703</v>
+        <v>-214710.8269756421</v>
       </c>
       <c r="M6" t="n">
-        <v>-191440.4618873891</v>
+        <v>-192492.1568985769</v>
       </c>
       <c r="N6" t="n">
         <v>-149239.632427766</v>
       </c>
       <c r="O6" t="n">
-        <v>-177007.326470537</v>
+        <v>-177007.3264705371</v>
       </c>
       <c r="P6" t="n">
         <v>-149239.6324277659</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431648</v>
-      </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014435</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014435</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26814,13 +26814,13 @@
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095194</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660709</v>
+        <v>78.07030221924579</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155133</v>
+        <v>17.58004954287456</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773705</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407358</v>
+        <v>117.1268713042783</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.5206598124534</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>376.6423198613302</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.03005425081015</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>106.615705792819</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>45.79196645817191</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27591,7 +27591,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>85.96284013118111</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>394.458285804283</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>229.8085921857738</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627269</v>
+        <v>104.3086047206518</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>119.9051352016867</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>74.29394439321295</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>65.1510226762806</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>287.4615089739863</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -28020,13 +28020,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>87.62118754448949</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4.013342831549608</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473204</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
     </row>
     <row r="17">
@@ -28743,31 +28743,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>28.01250026485167</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.63600263452912</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="21">
@@ -28956,43 +28956,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>35.71049010668693</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668673</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29232,10 +29232,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="26">
@@ -29272,46 +29272,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="K26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="L26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="M26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="N26" t="n">
         <v>30.2722376590126</v>
       </c>
-      <c r="K26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="L26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="M26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="N26" t="n">
-        <v>93.99127447431646</v>
-      </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431634</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901181</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>81.10808140893494</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.27291196566108</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>106.8683420224748</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O34" t="n">
-        <v>94.97643844044882</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30174,16 +30174,16 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O37" t="n">
-        <v>5.636002634527898</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30405,19 +30405,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5.636002634528126</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30639,28 +30639,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668834</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M43" t="n">
-        <v>5.636002634529632</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30888,16 +30888,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.636002634529465</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>33.71826330950459</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N2" t="n">
-        <v>162.8911480034072</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34781,22 +34781,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N3" t="n">
-        <v>354.6946747103975</v>
+        <v>77.54012143340347</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>33.71826330950459</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>28.35255940252281</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O6" t="n">
-        <v>17.27213818926889</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>88.11079445971943</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,16 +35179,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>298.1281072240285</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35261,7 +35261,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>582.1523102088538</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>227.4725996515698</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.712687011057</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>22.71185353989334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257297</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
         <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.251623847524</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488452</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257297</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.251623847524</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488452</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>216.1858117176436</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934969</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,19 +36443,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>486.5023077495127</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634527659</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36528,10 +36528,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851016</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36604,7 +36604,7 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36616,7 +36616,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397974</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446882</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700709</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>371.279489193486</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261601</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044895</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449823</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>525.5925267547212</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>272.9855989767202</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273785</v>
+        <v>75.16693519537657</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37157,10 +37157,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576765</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>221.4806783164134</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>76.79385455031574</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528631</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>297.8199541476686</v>
       </c>
       <c r="O34" t="n">
-        <v>259.3246879775277</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380293</v>
+        <v>233.866955910668</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102236</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37470,16 +37470,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716068</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37701,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>190.6760370094869</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634529267</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>193.8093140873216</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37956,7 +37956,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O45" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,16 +38184,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724877</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644681948</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
